--- a/analysis/assets/exp_results/linguistic_category_results.xlsx
+++ b/analysis/assets/exp_results/linguistic_category_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sungho/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sungho/Downloads/kogem_exp_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0992E78-4431-3A4F-A694-4DF87F93108D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07578AF-0250-8F48-A12B-DFC4F3FF86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{BCFE4A2F-9108-9644-8F0F-3838A93FF7FB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{BCFE4A2F-9108-9644-8F0F-3838A93FF7FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -549,19 +549,19 @@
         <v>47.42</v>
       </c>
       <c r="C3" s="4">
-        <v>51.87</v>
+        <v>52.61</v>
       </c>
       <c r="D3" s="4">
-        <v>64.16</v>
+        <v>64.38</v>
       </c>
       <c r="E3" s="4">
-        <v>72.209999999999994</v>
+        <v>74.55</v>
       </c>
       <c r="F3" s="4">
-        <v>45.91</v>
+        <v>46.82</v>
       </c>
       <c r="G3" s="4">
-        <v>59.06</v>
+        <v>59.97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -607,7 +607,7 @@
         <v>54.34</v>
       </c>
       <c r="G5" s="4">
-        <v>63.69</v>
+        <v>63.04</v>
       </c>
     </row>
   </sheetData>
